--- a/data/pca/factorExposure/factorExposure_2014-09-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-09-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.004325356674758854</v>
+        <v>0.0183595511516894</v>
       </c>
       <c r="C2">
-        <v>-0.1201396281468582</v>
+        <v>0.07034198973848509</v>
       </c>
       <c r="D2">
-        <v>0.02405763128922315</v>
+        <v>0.03237693436260668</v>
       </c>
       <c r="E2">
-        <v>-0.2213671056083741</v>
+        <v>-0.05426260300962111</v>
       </c>
       <c r="F2">
-        <v>0.06067309483182285</v>
+        <v>-0.1478694641362058</v>
       </c>
       <c r="G2">
-        <v>0.03565767662543441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.0101301296101768</v>
+      </c>
+      <c r="H2">
+        <v>-0.06207832842479662</v>
+      </c>
+      <c r="I2">
+        <v>0.02156545695193971</v>
+      </c>
+      <c r="J2">
+        <v>-0.03112125837490776</v>
+      </c>
+      <c r="K2">
+        <v>-0.1646314651407928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.01570439865682328</v>
+        <v>0.01597592369377539</v>
       </c>
       <c r="C4">
-        <v>-0.1656622816716308</v>
+        <v>0.1447159859098134</v>
       </c>
       <c r="D4">
-        <v>0.03327527654738671</v>
+        <v>0.06540229973879025</v>
       </c>
       <c r="E4">
-        <v>-0.05668944664837258</v>
+        <v>0.03178791313684864</v>
       </c>
       <c r="F4">
-        <v>-0.05934460215234712</v>
+        <v>-0.06963436093424012</v>
       </c>
       <c r="G4">
-        <v>-0.0437594331536368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03537207135989212</v>
+      </c>
+      <c r="H4">
+        <v>-0.0769965956940161</v>
+      </c>
+      <c r="I4">
+        <v>0.1012469790475124</v>
+      </c>
+      <c r="J4">
+        <v>-0.02686008438266604</v>
+      </c>
+      <c r="K4">
+        <v>-0.173164862431488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.02503886366190558</v>
+        <v>0.03754961231250421</v>
       </c>
       <c r="C6">
-        <v>-0.07757464913470434</v>
+        <v>0.08644050777046729</v>
       </c>
       <c r="D6">
-        <v>0.05807675510769756</v>
+        <v>0.02688797627361445</v>
       </c>
       <c r="E6">
-        <v>-0.06642497566340883</v>
+        <v>-0.03946662680253703</v>
       </c>
       <c r="F6">
-        <v>-0.009678009304968387</v>
+        <v>-0.0305071043152982</v>
       </c>
       <c r="G6">
-        <v>-0.01722406022431787</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.04040007750990496</v>
+      </c>
+      <c r="H6">
+        <v>-0.0332634350767481</v>
+      </c>
+      <c r="I6">
+        <v>-0.01707024833526411</v>
+      </c>
+      <c r="J6">
+        <v>0.09226250381208695</v>
+      </c>
+      <c r="K6">
+        <v>-0.08314407206222044</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.0001072594424965028</v>
+        <v>0.01816192943303003</v>
       </c>
       <c r="C7">
-        <v>-0.0637364696155642</v>
+        <v>0.07091403768332048</v>
       </c>
       <c r="D7">
-        <v>0.03800589557234529</v>
+        <v>0.03067884786605366</v>
       </c>
       <c r="E7">
-        <v>-0.0199374108513444</v>
+        <v>0.01685517792425316</v>
       </c>
       <c r="F7">
-        <v>-0.02588861265694902</v>
+        <v>0.003567670561916334</v>
       </c>
       <c r="G7">
-        <v>-0.03487405868908502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03630249854196112</v>
+      </c>
+      <c r="H7">
+        <v>-0.08835396520061997</v>
+      </c>
+      <c r="I7">
+        <v>0.02352961000691637</v>
+      </c>
+      <c r="J7">
+        <v>0.006329577799654653</v>
+      </c>
+      <c r="K7">
+        <v>-0.02906597053753847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01467093118887121</v>
+        <v>-0.0002831610339192441</v>
       </c>
       <c r="C8">
-        <v>-0.06656708095404977</v>
+        <v>0.06117370021585299</v>
       </c>
       <c r="D8">
-        <v>0.04161155057851125</v>
+        <v>0.04553560434713422</v>
       </c>
       <c r="E8">
-        <v>-0.06416655916865144</v>
+        <v>-0.008182520264732807</v>
       </c>
       <c r="F8">
-        <v>-0.006093749196443714</v>
+        <v>-0.05959622079060484</v>
       </c>
       <c r="G8">
-        <v>-0.001655990295576792</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.01653119162681495</v>
+      </c>
+      <c r="H8">
+        <v>-0.06000723569667876</v>
+      </c>
+      <c r="I8">
+        <v>0.02758632929771997</v>
+      </c>
+      <c r="J8">
+        <v>-0.001247636516171579</v>
+      </c>
+      <c r="K8">
+        <v>0.01469239035634182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.007072349337454582</v>
+        <v>0.01289204790613682</v>
       </c>
       <c r="C9">
-        <v>-0.1192020319041455</v>
+        <v>0.1041505151349361</v>
       </c>
       <c r="D9">
-        <v>0.04501794570950108</v>
+        <v>0.04152361689398865</v>
       </c>
       <c r="E9">
-        <v>-0.01417290161831205</v>
+        <v>0.006329588662549035</v>
       </c>
       <c r="F9">
-        <v>-0.003394435364252025</v>
+        <v>-0.03334407063701225</v>
       </c>
       <c r="G9">
-        <v>-0.05688743514705727</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.02217413602018763</v>
+      </c>
+      <c r="H9">
+        <v>-0.08590029866104544</v>
+      </c>
+      <c r="I9">
+        <v>0.07483819557221225</v>
+      </c>
+      <c r="J9">
+        <v>-0.003637653030966807</v>
+      </c>
+      <c r="K9">
+        <v>-0.08099645626355974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2708927352104867</v>
+        <v>0.2482601526358251</v>
       </c>
       <c r="C10">
-        <v>0.06896073721545097</v>
+        <v>-0.09096278357482598</v>
       </c>
       <c r="D10">
-        <v>-0.02070762173038915</v>
+        <v>-0.006775873123661649</v>
       </c>
       <c r="E10">
-        <v>0.01732713383176539</v>
+        <v>-0.01210133377470526</v>
       </c>
       <c r="F10">
-        <v>-0.005319483827217667</v>
+        <v>0.00168031343623747</v>
       </c>
       <c r="G10">
-        <v>-0.02474237933036751</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02922569044086313</v>
+      </c>
+      <c r="H10">
+        <v>-0.02933359103205445</v>
+      </c>
+      <c r="I10">
+        <v>0.01579201689945256</v>
+      </c>
+      <c r="J10">
+        <v>-0.169670212725815</v>
+      </c>
+      <c r="K10">
+        <v>0.08863869798548676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.003561178587752757</v>
+        <v>0.0160633716099289</v>
       </c>
       <c r="C11">
-        <v>-0.06642815524681837</v>
+        <v>0.08229498337368614</v>
       </c>
       <c r="D11">
-        <v>0.03094209173319144</v>
+        <v>0.03793828705558869</v>
       </c>
       <c r="E11">
-        <v>0.02106496012534892</v>
+        <v>0.005596180669125821</v>
       </c>
       <c r="F11">
-        <v>-0.004013853079436976</v>
+        <v>0.01276154147747162</v>
       </c>
       <c r="G11">
-        <v>-0.04838603788174934</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.01328450398057497</v>
+      </c>
+      <c r="H11">
+        <v>-0.02806320425767584</v>
+      </c>
+      <c r="I11">
+        <v>0.01210752181094724</v>
+      </c>
+      <c r="J11">
+        <v>0.03047637587854481</v>
+      </c>
+      <c r="K11">
+        <v>0.007066917608032497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.000379617999933806</v>
+        <v>0.01540856565620989</v>
       </c>
       <c r="C12">
-        <v>-0.04472801110168105</v>
+        <v>0.05546590248562855</v>
       </c>
       <c r="D12">
-        <v>0.03715635012046793</v>
+        <v>0.02551677771554204</v>
       </c>
       <c r="E12">
-        <v>0.01416905051751859</v>
+        <v>-0.01910366695584178</v>
       </c>
       <c r="F12">
-        <v>0.02740381345175512</v>
+        <v>0.01297646118171444</v>
       </c>
       <c r="G12">
-        <v>-0.062584625048557</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.03080635597672915</v>
+      </c>
+      <c r="H12">
+        <v>-0.02002039866423672</v>
+      </c>
+      <c r="I12">
+        <v>0.01552536698891455</v>
+      </c>
+      <c r="J12">
+        <v>0.02163152668743914</v>
+      </c>
+      <c r="K12">
+        <v>-0.002310486991643801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.009034242702037272</v>
+        <v>0.004736278972320892</v>
       </c>
       <c r="C13">
-        <v>-0.1260859884047559</v>
+        <v>0.1195076727259299</v>
       </c>
       <c r="D13">
-        <v>0.07053236551755143</v>
+        <v>0.04133544026962303</v>
       </c>
       <c r="E13">
-        <v>-0.05196047131272809</v>
+        <v>-0.1181886548674771</v>
       </c>
       <c r="F13">
-        <v>0.06704588535170307</v>
+        <v>-0.1047896071164969</v>
       </c>
       <c r="G13">
-        <v>-0.1775264899926567</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1376127459428457</v>
+      </c>
+      <c r="H13">
+        <v>-0.1341139886316283</v>
+      </c>
+      <c r="I13">
+        <v>-0.09876872180805568</v>
+      </c>
+      <c r="J13">
+        <v>-0.1948907111537628</v>
+      </c>
+      <c r="K13">
+        <v>0.2239000284720666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.008929747107628774</v>
+        <v>0.02031326432613774</v>
       </c>
       <c r="C14">
-        <v>-0.07279675059726221</v>
+        <v>0.07583464549702887</v>
       </c>
       <c r="D14">
-        <v>0.04026962249917055</v>
+        <v>0.04894622529211808</v>
       </c>
       <c r="E14">
-        <v>-0.0287285370980534</v>
+        <v>-0.0446498209818962</v>
       </c>
       <c r="F14">
-        <v>0.03115540176753589</v>
+        <v>-0.0001564533601056979</v>
       </c>
       <c r="G14">
-        <v>-0.08426841914519846</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.100609225625765</v>
+      </c>
+      <c r="H14">
+        <v>-0.1908084697114756</v>
+      </c>
+      <c r="I14">
+        <v>0.03277090423421433</v>
+      </c>
+      <c r="J14">
+        <v>0.01525517995960352</v>
+      </c>
+      <c r="K14">
+        <v>0.120992588807744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.002695911029134579</v>
+        <v>0.003699091130727515</v>
       </c>
       <c r="C15">
-        <v>-0.0988149566481079</v>
+        <v>0.08346499593757091</v>
       </c>
       <c r="D15">
-        <v>0.04698069605690224</v>
+        <v>0.03348294557592879</v>
       </c>
       <c r="E15">
-        <v>-0.04030783391635191</v>
+        <v>0.005670540892959911</v>
       </c>
       <c r="F15">
-        <v>-0.0004924588296630889</v>
+        <v>-0.02462667241441596</v>
       </c>
       <c r="G15">
-        <v>-0.05038798717525286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.03368555069379768</v>
+      </c>
+      <c r="H15">
+        <v>-0.09083145830505027</v>
+      </c>
+      <c r="I15">
+        <v>0.03411048543296118</v>
+      </c>
+      <c r="J15">
+        <v>0.02196947039850271</v>
+      </c>
+      <c r="K15">
+        <v>0.06800440462339236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.006496611991951894</v>
+        <v>0.01508140444836951</v>
       </c>
       <c r="C16">
-        <v>-0.05645034233234172</v>
+        <v>0.06208996353296892</v>
       </c>
       <c r="D16">
-        <v>0.02603088721446278</v>
+        <v>0.02660121405496836</v>
       </c>
       <c r="E16">
-        <v>0.01357302795545049</v>
+        <v>0.00179411984183276</v>
       </c>
       <c r="F16">
-        <v>0.01139766529202818</v>
+        <v>0.008007996075091457</v>
       </c>
       <c r="G16">
-        <v>-0.03380368640678808</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.01136846330606289</v>
+      </c>
+      <c r="H16">
+        <v>-0.01942820863345191</v>
+      </c>
+      <c r="I16">
+        <v>0.01084617794768345</v>
+      </c>
+      <c r="J16">
+        <v>0.02272006413343873</v>
+      </c>
+      <c r="K16">
+        <v>-0.008165696418234298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.009974826719899512</v>
+        <v>0.01429951390397991</v>
       </c>
       <c r="C20">
-        <v>-0.08525589961788992</v>
+        <v>0.08553011066269049</v>
       </c>
       <c r="D20">
-        <v>0.03712753115186897</v>
+        <v>0.02603293849077516</v>
       </c>
       <c r="E20">
-        <v>0.02552385589147641</v>
+        <v>0.02270518593585517</v>
       </c>
       <c r="F20">
-        <v>-0.003542622185418292</v>
+        <v>0.009692983085822122</v>
       </c>
       <c r="G20">
-        <v>-0.1099707937972143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04390078565271145</v>
+      </c>
+      <c r="H20">
+        <v>-0.07025757411754559</v>
+      </c>
+      <c r="I20">
+        <v>0.0178971094166051</v>
+      </c>
+      <c r="J20">
+        <v>0.01980939856845142</v>
+      </c>
+      <c r="K20">
+        <v>-0.01052917119862681</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.005642370798901463</v>
+        <v>0.01193074770206692</v>
       </c>
       <c r="C21">
-        <v>-0.09153387564640661</v>
+        <v>0.07211326357489928</v>
       </c>
       <c r="D21">
-        <v>-0.01949739515611547</v>
+        <v>0.01893241798496511</v>
       </c>
       <c r="E21">
-        <v>-0.02901209911339015</v>
+        <v>-0.09404744729684469</v>
       </c>
       <c r="F21">
-        <v>0.06648546417886228</v>
+        <v>-0.01896360103742278</v>
       </c>
       <c r="G21">
-        <v>-0.06049574574375185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.0370409380840466</v>
+      </c>
+      <c r="H21">
+        <v>-0.1430059805492805</v>
+      </c>
+      <c r="I21">
+        <v>-0.002785182167207096</v>
+      </c>
+      <c r="J21">
+        <v>-0.01691323573674282</v>
+      </c>
+      <c r="K21">
+        <v>0.04150466994445121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.01342052140423035</v>
+        <v>0.004100878259832037</v>
       </c>
       <c r="C22">
-        <v>-0.2496095236263104</v>
+        <v>0.1767131351117569</v>
       </c>
       <c r="D22">
-        <v>-0.08255165116403754</v>
+        <v>0.01722078452988949</v>
       </c>
       <c r="E22">
-        <v>-0.3225145643817042</v>
+        <v>0.09423956672847185</v>
       </c>
       <c r="F22">
-        <v>-0.287364419985382</v>
+        <v>-0.5259950757317838</v>
       </c>
       <c r="G22">
-        <v>0.1189879392335768</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.02429818857021366</v>
+      </c>
+      <c r="H22">
+        <v>0.2932217589282315</v>
+      </c>
+      <c r="I22">
+        <v>-0.10269154841211</v>
+      </c>
+      <c r="J22">
+        <v>0.009270876882354329</v>
+      </c>
+      <c r="K22">
+        <v>0.1799414747920901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.01479572788014127</v>
+        <v>0.009326652003753873</v>
       </c>
       <c r="C23">
-        <v>-0.2522760862443754</v>
+        <v>0.1805369344169962</v>
       </c>
       <c r="D23">
-        <v>-0.08738212844588139</v>
+        <v>0.01708239334043354</v>
       </c>
       <c r="E23">
-        <v>-0.3165610556089587</v>
+        <v>0.08950868316556349</v>
       </c>
       <c r="F23">
-        <v>-0.2831335266917647</v>
+        <v>-0.510250062301201</v>
       </c>
       <c r="G23">
-        <v>0.1180791695679395</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.021437820056118</v>
+      </c>
+      <c r="H23">
+        <v>0.2753538665969308</v>
+      </c>
+      <c r="I23">
+        <v>-0.08817094043222992</v>
+      </c>
+      <c r="J23">
+        <v>0.01320363602447981</v>
+      </c>
+      <c r="K23">
+        <v>0.1690784337393934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.0009673608261091734</v>
+        <v>0.01582295925875498</v>
       </c>
       <c r="C24">
-        <v>-0.05327427825270369</v>
+        <v>0.06529849231598413</v>
       </c>
       <c r="D24">
-        <v>0.04345773339363224</v>
+        <v>0.03993810672372246</v>
       </c>
       <c r="E24">
-        <v>0.01455383232059535</v>
+        <v>0.003833983474510182</v>
       </c>
       <c r="F24">
-        <v>0.003766973340831142</v>
+        <v>0.008374182942602839</v>
       </c>
       <c r="G24">
-        <v>-0.0631191835482109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02858623025378544</v>
+      </c>
+      <c r="H24">
+        <v>-0.0354367570998362</v>
+      </c>
+      <c r="I24">
+        <v>0.01546549197014785</v>
+      </c>
+      <c r="J24">
+        <v>0.02347147665092656</v>
+      </c>
+      <c r="K24">
+        <v>0.0003717913073346906</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.003780690895198843</v>
+        <v>0.01988886129120461</v>
       </c>
       <c r="C25">
-        <v>-0.06343204058108425</v>
+        <v>0.06875364541353322</v>
       </c>
       <c r="D25">
-        <v>0.02304552926126647</v>
+        <v>0.03307912798996169</v>
       </c>
       <c r="E25">
-        <v>0.01967734306065248</v>
+        <v>0.004571661568642886</v>
       </c>
       <c r="F25">
-        <v>0.00336861988090624</v>
+        <v>0.007282685458441519</v>
       </c>
       <c r="G25">
-        <v>-0.05747482160647192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02271589839497099</v>
+      </c>
+      <c r="H25">
+        <v>-0.02863082070139968</v>
+      </c>
+      <c r="I25">
+        <v>0.02026346332622053</v>
+      </c>
+      <c r="J25">
+        <v>0.01002000863975494</v>
+      </c>
+      <c r="K25">
+        <v>0.01311776560901831</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.00110383248997865</v>
+        <v>0.02259722289102723</v>
       </c>
       <c r="C26">
-        <v>-0.047017719140104</v>
+        <v>0.05721442475855293</v>
       </c>
       <c r="D26">
-        <v>0.07142352777613159</v>
+        <v>0.06312226037589223</v>
       </c>
       <c r="E26">
-        <v>-0.008290601486521424</v>
+        <v>0.00647574147616347</v>
       </c>
       <c r="F26">
-        <v>0.03869897981897766</v>
+        <v>0.01615341238983241</v>
       </c>
       <c r="G26">
-        <v>-0.04233142640699276</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.01017708874750948</v>
+      </c>
+      <c r="H26">
+        <v>-0.0936328067640259</v>
+      </c>
+      <c r="I26">
+        <v>0.06303690983698547</v>
+      </c>
+      <c r="J26">
+        <v>0.04416751547277215</v>
+      </c>
+      <c r="K26">
+        <v>-0.1223943738110106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3658259725035379</v>
+        <v>0.3153111067142249</v>
       </c>
       <c r="C28">
-        <v>0.08113992205445505</v>
+        <v>-0.1042458618928906</v>
       </c>
       <c r="D28">
-        <v>-0.01941291196329223</v>
+        <v>-0.03282436530230096</v>
       </c>
       <c r="E28">
-        <v>0.06180170212980803</v>
+        <v>-0.007266928284273869</v>
       </c>
       <c r="F28">
-        <v>0.04708143289375925</v>
+        <v>-0.04570097285503189</v>
       </c>
       <c r="G28">
-        <v>0.08341736940055536</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1119123879393506</v>
+      </c>
+      <c r="H28">
+        <v>-0.06597302323030878</v>
+      </c>
+      <c r="I28">
+        <v>-0.01500113902211244</v>
+      </c>
+      <c r="J28">
+        <v>-0.2154901173596272</v>
+      </c>
+      <c r="K28">
+        <v>-0.02907781927896785</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.008601554381624358</v>
+        <v>0.01499617335193295</v>
       </c>
       <c r="C29">
-        <v>-0.07752746583537369</v>
+        <v>0.08381084817080497</v>
       </c>
       <c r="D29">
-        <v>0.04956175855238722</v>
+        <v>0.0520402442029002</v>
       </c>
       <c r="E29">
-        <v>-0.02102550900600503</v>
+        <v>-0.04833141488971179</v>
       </c>
       <c r="F29">
-        <v>0.03191905511343028</v>
+        <v>-0.004998990912866144</v>
       </c>
       <c r="G29">
-        <v>-0.1206121495535291</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1479380895416193</v>
+      </c>
+      <c r="H29">
+        <v>-0.2659990417558624</v>
+      </c>
+      <c r="I29">
+        <v>0.06615228485975654</v>
+      </c>
+      <c r="J29">
+        <v>-0.01500686947553019</v>
+      </c>
+      <c r="K29">
+        <v>0.1904037248600017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.01860546509105109</v>
+        <v>0.02987243564584524</v>
       </c>
       <c r="C30">
-        <v>-0.1678830145337538</v>
+        <v>0.1421415055304517</v>
       </c>
       <c r="D30">
-        <v>0.07186698350084533</v>
+        <v>0.05607580870068858</v>
       </c>
       <c r="E30">
-        <v>-0.03202211033525334</v>
+        <v>0.01747124369491506</v>
       </c>
       <c r="F30">
-        <v>-0.04244667812161373</v>
+        <v>-0.06099506985645604</v>
       </c>
       <c r="G30">
-        <v>-0.01663748483473978</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.009090137050051551</v>
+      </c>
+      <c r="H30">
+        <v>-0.0411691893176118</v>
+      </c>
+      <c r="I30">
+        <v>0.01853902933332355</v>
+      </c>
+      <c r="J30">
+        <v>0.04671211556000546</v>
+      </c>
+      <c r="K30">
+        <v>-0.08901560260570066</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.00259350614102071</v>
+        <v>0.01386343320737026</v>
       </c>
       <c r="C31">
-        <v>-0.05425589111924902</v>
+        <v>0.08036776558882264</v>
       </c>
       <c r="D31">
-        <v>0.03578362242980667</v>
+        <v>0.04136729598308598</v>
       </c>
       <c r="E31">
-        <v>0.01811447382565114</v>
+        <v>-0.002757289235836775</v>
       </c>
       <c r="F31">
-        <v>0.01636659452011455</v>
+        <v>2.394750065447992e-07</v>
       </c>
       <c r="G31">
-        <v>-0.01950318174536033</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01781583765253014</v>
+      </c>
+      <c r="H31">
+        <v>-0.03230351619210632</v>
+      </c>
+      <c r="I31">
+        <v>0.02340257528594622</v>
+      </c>
+      <c r="J31">
+        <v>0.01308090099992055</v>
+      </c>
+      <c r="K31">
+        <v>0.0205293047015565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.01585426956517658</v>
+        <v>0.02148998273676691</v>
       </c>
       <c r="C32">
-        <v>-0.08538194798843002</v>
+        <v>0.05253451332735892</v>
       </c>
       <c r="D32">
-        <v>0.002178666711601919</v>
+        <v>0.02488123622446213</v>
       </c>
       <c r="E32">
-        <v>-0.1476467853503787</v>
+        <v>-0.06193793995093859</v>
       </c>
       <c r="F32">
-        <v>0.01603115648220124</v>
+        <v>-0.09813784988219633</v>
       </c>
       <c r="G32">
-        <v>-0.08833265877594176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.08193473292754884</v>
+      </c>
+      <c r="H32">
+        <v>-0.1569469932343437</v>
+      </c>
+      <c r="I32">
+        <v>-0.01472638992081197</v>
+      </c>
+      <c r="J32">
+        <v>-0.2808570557296232</v>
+      </c>
+      <c r="K32">
+        <v>0.03860661183530509</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01363368511606672</v>
+        <v>0.01677519640545972</v>
       </c>
       <c r="C33">
-        <v>-0.08809813504313872</v>
+        <v>0.1046297636304418</v>
       </c>
       <c r="D33">
-        <v>0.06436119351925043</v>
+        <v>0.05161351916325239</v>
       </c>
       <c r="E33">
-        <v>-0.009473797384512617</v>
+        <v>0.006473361377361454</v>
       </c>
       <c r="F33">
-        <v>0.01368604880527655</v>
+        <v>-0.0143918905213448</v>
       </c>
       <c r="G33">
-        <v>-0.04134869094133817</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.0313762683378566</v>
+      </c>
+      <c r="H33">
+        <v>-0.048221139038426</v>
+      </c>
+      <c r="I33">
+        <v>0.02037049260182815</v>
+      </c>
+      <c r="J33">
+        <v>-0.01416750736589586</v>
+      </c>
+      <c r="K33">
+        <v>-0.006092506317158099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.0008160435603629577</v>
+        <v>0.01583626846490892</v>
       </c>
       <c r="C34">
-        <v>-0.04637467416462056</v>
+        <v>0.04833608640893094</v>
       </c>
       <c r="D34">
-        <v>0.02023822707329659</v>
+        <v>0.01989732873541328</v>
       </c>
       <c r="E34">
-        <v>0.003468905176494402</v>
+        <v>-0.005751026202922978</v>
       </c>
       <c r="F34">
-        <v>0.02437022587029043</v>
+        <v>0.01140154640318874</v>
       </c>
       <c r="G34">
-        <v>-0.03799411278977794</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01795724764844692</v>
+      </c>
+      <c r="H34">
+        <v>-0.004387199497984268</v>
+      </c>
+      <c r="I34">
+        <v>0.01434135069103143</v>
+      </c>
+      <c r="J34">
+        <v>0.01729556493153374</v>
+      </c>
+      <c r="K34">
+        <v>0.0004650216982800385</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.003735007444054766</v>
+        <v>0.01030546680444972</v>
       </c>
       <c r="C35">
-        <v>-0.02684229348642493</v>
+        <v>0.04454177278768129</v>
       </c>
       <c r="D35">
-        <v>0.008768928532753691</v>
+        <v>0.022665722215402</v>
       </c>
       <c r="E35">
-        <v>-0.006025181019661501</v>
+        <v>-0.01071551692753906</v>
       </c>
       <c r="F35">
-        <v>0.007356249912757107</v>
+        <v>-0.006557097019685099</v>
       </c>
       <c r="G35">
-        <v>-0.03962631370661079</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.06142019588046654</v>
+      </c>
+      <c r="H35">
+        <v>-0.1342919459934039</v>
+      </c>
+      <c r="I35">
+        <v>0.0658244608660264</v>
+      </c>
+      <c r="J35">
+        <v>-0.02237908176155077</v>
+      </c>
+      <c r="K35">
+        <v>0.157639600450469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.006181846788023276</v>
+        <v>0.01609016516195825</v>
       </c>
       <c r="C36">
-        <v>-0.05020948929829283</v>
+        <v>0.04919887902387774</v>
       </c>
       <c r="D36">
-        <v>0.05594631233703088</v>
+        <v>0.04500625490977903</v>
       </c>
       <c r="E36">
-        <v>0.00101896639650523</v>
+        <v>0.002466084522841512</v>
       </c>
       <c r="F36">
-        <v>0.01584336145169235</v>
+        <v>-0.00736016956712392</v>
       </c>
       <c r="G36">
-        <v>-0.03463611015727192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.006013525789786024</v>
+      </c>
+      <c r="H36">
+        <v>-0.07541541677644928</v>
+      </c>
+      <c r="I36">
+        <v>0.01933527116118358</v>
+      </c>
+      <c r="J36">
+        <v>0.01791842217962736</v>
+      </c>
+      <c r="K36">
+        <v>-0.04775634658023012</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.03186741124186072</v>
+        <v>0.01045327713099048</v>
       </c>
       <c r="C38">
-        <v>-0.05749983143982841</v>
+        <v>0.05946979748973847</v>
       </c>
       <c r="D38">
-        <v>0.05160313906630774</v>
+        <v>0.04022131009856471</v>
       </c>
       <c r="E38">
-        <v>0.01452153501896237</v>
+        <v>0.03279707631670625</v>
       </c>
       <c r="F38">
-        <v>-0.0005557418829539312</v>
+        <v>-0.01905122307919616</v>
       </c>
       <c r="G38">
-        <v>-0.03618399000176053</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01464218571481996</v>
+      </c>
+      <c r="H38">
+        <v>-0.08594240939645445</v>
+      </c>
+      <c r="I38">
+        <v>-0.01389734215661857</v>
+      </c>
+      <c r="J38">
+        <v>-0.04720022171415462</v>
+      </c>
+      <c r="K38">
+        <v>0.02699823513959579</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.0003123361561216813</v>
+        <v>0.01790992050191153</v>
       </c>
       <c r="C39">
-        <v>-0.1261920840856575</v>
+        <v>0.1302095497539086</v>
       </c>
       <c r="D39">
-        <v>0.05557138780744553</v>
+        <v>0.05804903395267497</v>
       </c>
       <c r="E39">
-        <v>0.007400510077835674</v>
+        <v>-0.008584345311060476</v>
       </c>
       <c r="F39">
-        <v>0.009664142080875853</v>
+        <v>0.004193975621112751</v>
       </c>
       <c r="G39">
-        <v>-0.08448983181439963</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.0442238144871683</v>
+      </c>
+      <c r="H39">
+        <v>-0.05212024645151449</v>
+      </c>
+      <c r="I39">
+        <v>0.005759829199610289</v>
+      </c>
+      <c r="J39">
+        <v>0.08026648330237349</v>
+      </c>
+      <c r="K39">
+        <v>-0.03435614653967627</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.002012356927815935</v>
+        <v>0.01232448472069922</v>
       </c>
       <c r="C40">
-        <v>-0.02918460681346091</v>
+        <v>0.05561373943616683</v>
       </c>
       <c r="D40">
-        <v>0.02023168329970738</v>
+        <v>0.04181081405222434</v>
       </c>
       <c r="E40">
-        <v>-0.1371690351683985</v>
+        <v>-0.03403196405299189</v>
       </c>
       <c r="F40">
-        <v>-0.04270908505677241</v>
+        <v>-0.03291309975263958</v>
       </c>
       <c r="G40">
-        <v>-0.1040226461896598</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.157259867695661</v>
+      </c>
+      <c r="H40">
+        <v>-0.01720217039252091</v>
+      </c>
+      <c r="I40">
+        <v>0.02524957913126426</v>
+      </c>
+      <c r="J40">
+        <v>-0.007241718949385263</v>
+      </c>
+      <c r="K40">
+        <v>0.2749392014670531</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01204209678491188</v>
+        <v>0.02221767777258237</v>
       </c>
       <c r="C41">
-        <v>-0.02293829960204972</v>
+        <v>0.0475996579286017</v>
       </c>
       <c r="D41">
-        <v>0.009906836695190373</v>
+        <v>0.01686496217129655</v>
       </c>
       <c r="E41">
-        <v>0.01073002878547391</v>
+        <v>0.000626298310703184</v>
       </c>
       <c r="F41">
-        <v>0.01954742531952809</v>
+        <v>0.02202118510756785</v>
       </c>
       <c r="G41">
-        <v>0.0351680854725837</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.004019233722840976</v>
+      </c>
+      <c r="H41">
+        <v>-0.02248850685227454</v>
+      </c>
+      <c r="I41">
+        <v>-0.00325956057478681</v>
+      </c>
+      <c r="J41">
+        <v>-0.0260366329901419</v>
+      </c>
+      <c r="K41">
+        <v>0.04412706948003912</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.00376349216191392</v>
+        <v>0.01813315428722104</v>
       </c>
       <c r="C43">
-        <v>-0.02101620979200733</v>
+        <v>0.04337835096976461</v>
       </c>
       <c r="D43">
-        <v>0.02099838969862543</v>
+        <v>0.02942928342132791</v>
       </c>
       <c r="E43">
-        <v>0.004730877313901832</v>
+        <v>0.01097559160367934</v>
       </c>
       <c r="F43">
-        <v>-0.0001181309536787265</v>
+        <v>0.009384723828384364</v>
       </c>
       <c r="G43">
-        <v>-0.01098862696784421</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.007092453925966992</v>
+      </c>
+      <c r="H43">
+        <v>-0.04071597909378551</v>
+      </c>
+      <c r="I43">
+        <v>-0.004077361807330362</v>
+      </c>
+      <c r="J43">
+        <v>0.004648160664518277</v>
+      </c>
+      <c r="K43">
+        <v>0.0334571384288652</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.01904602684833704</v>
+        <v>0.01461100231087314</v>
       </c>
       <c r="C44">
-        <v>-0.0967497064924034</v>
+        <v>0.09853701956428572</v>
       </c>
       <c r="D44">
-        <v>0.03724603168914935</v>
+        <v>0.05732000724498866</v>
       </c>
       <c r="E44">
-        <v>-0.03243090845827889</v>
+        <v>0.03049426826943102</v>
       </c>
       <c r="F44">
-        <v>-0.02595596140337665</v>
+        <v>-0.06121059646581938</v>
       </c>
       <c r="G44">
-        <v>-0.06521388626431179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.05064089925574835</v>
+      </c>
+      <c r="H44">
+        <v>-0.05094772199423329</v>
+      </c>
+      <c r="I44">
+        <v>0.009732907991749924</v>
+      </c>
+      <c r="J44">
+        <v>0.04652340456689504</v>
+      </c>
+      <c r="K44">
+        <v>-0.08251687292465056</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.00359828088384772</v>
+        <v>0.003649692427575532</v>
       </c>
       <c r="C46">
-        <v>-0.06314437024884174</v>
+        <v>0.06476208258222001</v>
       </c>
       <c r="D46">
-        <v>0.04856699830789256</v>
+        <v>0.02882445404373855</v>
       </c>
       <c r="E46">
-        <v>-0.01951237724952312</v>
+        <v>-0.006610064438261636</v>
       </c>
       <c r="F46">
-        <v>0.01043691446287004</v>
+        <v>0.006516986567777902</v>
       </c>
       <c r="G46">
-        <v>-0.0707229856998121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05078590099616377</v>
+      </c>
+      <c r="H46">
+        <v>-0.09571372390753527</v>
+      </c>
+      <c r="I46">
+        <v>0.005101163964673448</v>
+      </c>
+      <c r="J46">
+        <v>0.001367455546963046</v>
+      </c>
+      <c r="K46">
+        <v>0.07599606777323288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.005595842068670923</v>
+        <v>0.02122278248533099</v>
       </c>
       <c r="C47">
-        <v>-0.0652030717374736</v>
+        <v>0.07857573260312187</v>
       </c>
       <c r="D47">
-        <v>0.04837647597273671</v>
+        <v>0.0424133388059076</v>
       </c>
       <c r="E47">
-        <v>0.0255284846164579</v>
+        <v>-0.005038790752999269</v>
       </c>
       <c r="F47">
-        <v>0.05256156209207666</v>
+        <v>0.0164910630803993</v>
       </c>
       <c r="G47">
-        <v>-0.04683426412213764</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.02002780425138202</v>
+      </c>
+      <c r="H47">
+        <v>-0.07099654878532459</v>
+      </c>
+      <c r="I47">
+        <v>-0.000104216213458051</v>
+      </c>
+      <c r="J47">
+        <v>-0.01556642368259191</v>
+      </c>
+      <c r="K47">
+        <v>0.02492966933770215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.005528834163346938</v>
+        <v>0.02005156879038386</v>
       </c>
       <c r="C48">
-        <v>-0.05121224232205587</v>
+        <v>0.05069132500524339</v>
       </c>
       <c r="D48">
-        <v>0.06036454792113614</v>
+        <v>0.05330088460664532</v>
       </c>
       <c r="E48">
-        <v>-0.001821887662201808</v>
+        <v>0.007980418989865587</v>
       </c>
       <c r="F48">
-        <v>0.01021871903601432</v>
+        <v>-0.00158392742539008</v>
       </c>
       <c r="G48">
-        <v>-0.04429260998150406</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01081841289292508</v>
+      </c>
+      <c r="H48">
+        <v>-0.08972836786456673</v>
+      </c>
+      <c r="I48">
+        <v>0.05250208590619476</v>
+      </c>
+      <c r="J48">
+        <v>0.03630598297369383</v>
+      </c>
+      <c r="K48">
+        <v>-0.102258032976721</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.009238797948007312</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.03013225303263416</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.007378334491592881</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.00845186229682101</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.04072109551377461</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.03183337952840187</v>
+      </c>
+      <c r="H49">
+        <v>0.02775301777404073</v>
+      </c>
+      <c r="I49">
+        <v>0.04397847006107498</v>
+      </c>
+      <c r="J49">
+        <v>0.03966134829165419</v>
+      </c>
+      <c r="K49">
+        <v>-0.02486471027035299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.0008532661529565927</v>
+        <v>0.014487408338916</v>
       </c>
       <c r="C50">
-        <v>-0.06763633780913479</v>
+        <v>0.07967871932381924</v>
       </c>
       <c r="D50">
-        <v>0.03436078616681316</v>
+        <v>0.0305050881515464</v>
       </c>
       <c r="E50">
-        <v>0.003708632460325026</v>
+        <v>0.007044043266347054</v>
       </c>
       <c r="F50">
-        <v>0.002978020172386883</v>
+        <v>-0.006910449394104679</v>
       </c>
       <c r="G50">
-        <v>-0.03369962904057739</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.0007680626542340868</v>
+      </c>
+      <c r="H50">
+        <v>-0.0519365644686268</v>
+      </c>
+      <c r="I50">
+        <v>0.01922636428290057</v>
+      </c>
+      <c r="J50">
+        <v>-0.04331023773356163</v>
+      </c>
+      <c r="K50">
+        <v>0.01091194061079113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.001798786456905636</v>
+        <v>-0.005737124536048206</v>
       </c>
       <c r="C51">
-        <v>-0.07210376339268425</v>
+        <v>0.03389140990701651</v>
       </c>
       <c r="D51">
-        <v>0.02275573348614393</v>
+        <v>0.0230010651442616</v>
       </c>
       <c r="E51">
-        <v>-0.03923962597006718</v>
+        <v>-0.009196942758590744</v>
       </c>
       <c r="F51">
-        <v>-0.01511831003556611</v>
+        <v>-0.02805310503743351</v>
       </c>
       <c r="G51">
-        <v>-0.04357219071980063</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.03185323794031156</v>
+      </c>
+      <c r="H51">
+        <v>-0.09767006412818571</v>
+      </c>
+      <c r="I51">
+        <v>0.02516697925905344</v>
+      </c>
+      <c r="J51">
+        <v>0.005450445905043426</v>
+      </c>
+      <c r="K51">
+        <v>-0.09865801413979924</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.03075348314348851</v>
+        <v>0.05667400535009359</v>
       </c>
       <c r="C53">
-        <v>-0.1201306589208614</v>
+        <v>0.1316804860010989</v>
       </c>
       <c r="D53">
-        <v>0.07595053728911651</v>
+        <v>0.06023339607930349</v>
       </c>
       <c r="E53">
-        <v>0.131314350163153</v>
+        <v>-0.01634113630402778</v>
       </c>
       <c r="F53">
-        <v>0.05260945620691217</v>
+        <v>0.07186688823844901</v>
       </c>
       <c r="G53">
-        <v>0.06564165896890037</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.08612455821325538</v>
+      </c>
+      <c r="H53">
+        <v>0.02678385611544806</v>
+      </c>
+      <c r="I53">
+        <v>0.008326388357655852</v>
+      </c>
+      <c r="J53">
+        <v>-0.03310627269311998</v>
+      </c>
+      <c r="K53">
+        <v>0.006910938365513426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.005465099929173608</v>
+        <v>0.0171959744322828</v>
       </c>
       <c r="C54">
-        <v>-0.06581917265200385</v>
+        <v>0.07333440356773036</v>
       </c>
       <c r="D54">
-        <v>0.01207975976161803</v>
+        <v>0.01359742307489472</v>
       </c>
       <c r="E54">
-        <v>0.02276102242453096</v>
+        <v>-0.005004542353032161</v>
       </c>
       <c r="F54">
-        <v>-0.004271717157572148</v>
+        <v>0.0174426162390635</v>
       </c>
       <c r="G54">
-        <v>-0.02880475717570784</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.02602025588970992</v>
+      </c>
+      <c r="H54">
+        <v>-0.04095277312326676</v>
+      </c>
+      <c r="I54">
+        <v>0.0329593035091488</v>
+      </c>
+      <c r="J54">
+        <v>0.02467024236235026</v>
+      </c>
+      <c r="K54">
+        <v>-0.003553925036201912</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.0186926059601317</v>
+        <v>0.03056366718463902</v>
       </c>
       <c r="C55">
-        <v>-0.07789583584061624</v>
+        <v>0.08487655112363204</v>
       </c>
       <c r="D55">
-        <v>0.06854871421291288</v>
+        <v>0.05580234937566825</v>
       </c>
       <c r="E55">
-        <v>0.06014258839385036</v>
+        <v>-0.006551280300420832</v>
       </c>
       <c r="F55">
-        <v>0.03960474714472669</v>
+        <v>0.05069395637716127</v>
       </c>
       <c r="G55">
-        <v>0.01551416284225144</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03899200694910616</v>
+      </c>
+      <c r="H55">
+        <v>0.01890523512485669</v>
+      </c>
+      <c r="I55">
+        <v>0.01512004467760256</v>
+      </c>
+      <c r="J55">
+        <v>0.01194616001992159</v>
+      </c>
+      <c r="K55">
+        <v>0.0006615419950491435</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.01747414497089715</v>
+        <v>0.04428267843689697</v>
       </c>
       <c r="C56">
-        <v>-0.1511865955728907</v>
+        <v>0.1496903098117708</v>
       </c>
       <c r="D56">
-        <v>0.0796858959648945</v>
+        <v>0.08586556618185638</v>
       </c>
       <c r="E56">
-        <v>0.1123896556082188</v>
+        <v>-0.04709613051515909</v>
       </c>
       <c r="F56">
-        <v>0.07533579780697615</v>
+        <v>0.09579418369099006</v>
       </c>
       <c r="G56">
-        <v>0.1176879999669611</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1674408542289822</v>
+      </c>
+      <c r="H56">
+        <v>0.03320827801809789</v>
+      </c>
+      <c r="I56">
+        <v>0.02582276071475092</v>
+      </c>
+      <c r="J56">
+        <v>-0.01645709565696856</v>
+      </c>
+      <c r="K56">
+        <v>-0.01743645305710407</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.0225698415832076</v>
+        <v>0.02046339869956328</v>
       </c>
       <c r="C58">
-        <v>-0.2987930445094784</v>
+        <v>0.1832753176365581</v>
       </c>
       <c r="D58">
-        <v>-0.01294731279963507</v>
+        <v>0.04074288346560948</v>
       </c>
       <c r="E58">
-        <v>-0.1685994971577333</v>
+        <v>0.04580431693458072</v>
       </c>
       <c r="F58">
-        <v>-0.2547181761181956</v>
+        <v>-0.3145638960709943</v>
       </c>
       <c r="G58">
-        <v>0.07241619053564477</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.07992488023484899</v>
+      </c>
+      <c r="H58">
+        <v>-0.07654687048657435</v>
+      </c>
+      <c r="I58">
+        <v>-0.02012025297798098</v>
+      </c>
+      <c r="J58">
+        <v>-0.04755805131398141</v>
+      </c>
+      <c r="K58">
+        <v>-0.3613024799460341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2862141639070564</v>
+        <v>0.2897718483926643</v>
       </c>
       <c r="C59">
-        <v>0.0007145396095271403</v>
+        <v>-0.04349014199218402</v>
       </c>
       <c r="D59">
-        <v>-0.0180528080445266</v>
+        <v>-0.006260153066286559</v>
       </c>
       <c r="E59">
-        <v>-0.04965950814738735</v>
+        <v>-0.01834413347512177</v>
       </c>
       <c r="F59">
-        <v>0.04694903344241151</v>
+        <v>-0.04573972283344935</v>
       </c>
       <c r="G59">
-        <v>0.007683514064178231</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-7.875512003299591e-05</v>
+      </c>
+      <c r="H59">
+        <v>0.02009027415462632</v>
+      </c>
+      <c r="I59">
+        <v>-0.01792621497720491</v>
+      </c>
+      <c r="J59">
+        <v>-0.02744358726241435</v>
+      </c>
+      <c r="K59">
+        <v>0.02719648371595881</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1081821703734596</v>
+        <v>0.1446605239525542</v>
       </c>
       <c r="C60">
-        <v>-0.1368218307913917</v>
+        <v>0.1522125616845451</v>
       </c>
       <c r="D60">
-        <v>0.08207742387860484</v>
+        <v>0.04745113008947832</v>
       </c>
       <c r="E60">
-        <v>0.07307193557165237</v>
+        <v>-0.0391384235180288</v>
       </c>
       <c r="F60">
-        <v>0.1512199268186583</v>
+        <v>0.1180540349387502</v>
       </c>
       <c r="G60">
-        <v>-0.2350923736455936</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.2300144668881171</v>
+      </c>
+      <c r="H60">
+        <v>0.2521627393970477</v>
+      </c>
+      <c r="I60">
+        <v>-0.05534098481034811</v>
+      </c>
+      <c r="J60">
+        <v>0.03062650901291832</v>
+      </c>
+      <c r="K60">
+        <v>-0.04277718389812034</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.0004381143084586661</v>
+        <v>0.0204618949518942</v>
       </c>
       <c r="C61">
-        <v>-0.08197916853888357</v>
+        <v>0.09770737131850239</v>
       </c>
       <c r="D61">
-        <v>0.06447822804950032</v>
+        <v>0.05469231283411281</v>
       </c>
       <c r="E61">
-        <v>0.02856246786618797</v>
+        <v>-0.007727347248601617</v>
       </c>
       <c r="F61">
-        <v>0.02962936437823072</v>
+        <v>0.02933869541576423</v>
       </c>
       <c r="G61">
-        <v>-0.0815600593484901</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.03335664731598893</v>
+      </c>
+      <c r="H61">
+        <v>-0.05265813049745382</v>
+      </c>
+      <c r="I61">
+        <v>0.03021995152893112</v>
+      </c>
+      <c r="J61">
+        <v>0.03072790987427233</v>
+      </c>
+      <c r="K61">
+        <v>0.009791130728957247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.003024392396594509</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01365029475288906</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003233924837438325</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.009490481499073632</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01553289618902684</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.0195808076109803</v>
+      </c>
+      <c r="H62">
+        <v>0.005620736763127467</v>
+      </c>
+      <c r="I62">
+        <v>0.0575084024375479</v>
+      </c>
+      <c r="J62">
+        <v>-0.01931053450649485</v>
+      </c>
+      <c r="K62">
+        <v>0.005361360957136312</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.0009562274222241101</v>
+        <v>0.02630360551575978</v>
       </c>
       <c r="C63">
-        <v>-0.05848919326687374</v>
+        <v>0.06664701569962746</v>
       </c>
       <c r="D63">
-        <v>0.04625160199148064</v>
+        <v>0.0587842661260143</v>
       </c>
       <c r="E63">
-        <v>0.02912958209595868</v>
+        <v>-0.006930037296977176</v>
       </c>
       <c r="F63">
-        <v>0.004322121545251786</v>
+        <v>0.01615996828410995</v>
       </c>
       <c r="G63">
-        <v>-0.03324330126213989</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.009363578869437015</v>
+      </c>
+      <c r="H63">
+        <v>-0.05444406233210063</v>
+      </c>
+      <c r="I63">
+        <v>0.0391917962819403</v>
+      </c>
+      <c r="J63">
+        <v>0.01517784153589256</v>
+      </c>
+      <c r="K63">
+        <v>0.007286633405487197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.00337463341656417</v>
+        <v>0.01388714891585461</v>
       </c>
       <c r="C64">
-        <v>-0.07781243974515957</v>
+        <v>0.09234254575265927</v>
       </c>
       <c r="D64">
-        <v>0.06973457583150412</v>
+        <v>0.03193788571280427</v>
       </c>
       <c r="E64">
-        <v>-0.00456274602086918</v>
+        <v>0.02547474234272768</v>
       </c>
       <c r="F64">
-        <v>-0.005623597844067642</v>
+        <v>-0.02793194696157682</v>
       </c>
       <c r="G64">
-        <v>-0.06939371901521399</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.07668511705263276</v>
+      </c>
+      <c r="H64">
+        <v>-0.04283645126230769</v>
+      </c>
+      <c r="I64">
+        <v>0.02905927336148097</v>
+      </c>
+      <c r="J64">
+        <v>0.04524360230544121</v>
+      </c>
+      <c r="K64">
+        <v>0.009533312867258989</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.008141431416682433</v>
+        <v>0.03072629635514485</v>
       </c>
       <c r="C65">
-        <v>-0.08014726718065647</v>
+        <v>0.09383460040011603</v>
       </c>
       <c r="D65">
-        <v>0.0423104151631766</v>
+        <v>0.02221653576560292</v>
       </c>
       <c r="E65">
-        <v>-0.03441041832511144</v>
+        <v>0.01605002644829253</v>
       </c>
       <c r="F65">
-        <v>-0.009588523713689207</v>
+        <v>-0.001358807927796782</v>
       </c>
       <c r="G65">
-        <v>-0.02236260310454257</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.08075581645288084</v>
+      </c>
+      <c r="H65">
+        <v>-0.003611852957862505</v>
+      </c>
+      <c r="I65">
+        <v>-0.04787271720127922</v>
+      </c>
+      <c r="J65">
+        <v>0.09844358927230672</v>
+      </c>
+      <c r="K65">
+        <v>-0.096286520383501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.001764818031010334</v>
+        <v>0.01409085640378935</v>
       </c>
       <c r="C66">
-        <v>-0.1708309997958438</v>
+        <v>0.1671469972842982</v>
       </c>
       <c r="D66">
-        <v>0.04473699632718019</v>
+        <v>0.04951478224140805</v>
       </c>
       <c r="E66">
-        <v>-0.03233643263305411</v>
+        <v>-0.01582020709571908</v>
       </c>
       <c r="F66">
-        <v>0.02690616945857266</v>
+        <v>-0.009743965748162137</v>
       </c>
       <c r="G66">
-        <v>-0.1070017950042946</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03478746958804411</v>
+      </c>
+      <c r="H66">
+        <v>-0.06206868003501384</v>
+      </c>
+      <c r="I66">
+        <v>0.02641690464816022</v>
+      </c>
+      <c r="J66">
+        <v>0.05146276546766519</v>
+      </c>
+      <c r="K66">
+        <v>-0.02584323202813354</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.03171311933352534</v>
+        <v>0.01894654159204844</v>
       </c>
       <c r="C67">
-        <v>-0.0322388743479426</v>
+        <v>0.0497474971794414</v>
       </c>
       <c r="D67">
-        <v>0.06686776415366269</v>
+        <v>0.04161294191932597</v>
       </c>
       <c r="E67">
-        <v>0.04404691407940063</v>
+        <v>0.02833111400738727</v>
       </c>
       <c r="F67">
-        <v>0.007026741196452429</v>
+        <v>0.01608951294266873</v>
       </c>
       <c r="G67">
-        <v>-0.04285242743845068</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03831970181280465</v>
+      </c>
+      <c r="H67">
+        <v>-0.05993819256348724</v>
+      </c>
+      <c r="I67">
+        <v>-0.02804166444789906</v>
+      </c>
+      <c r="J67">
+        <v>-0.03822303813341351</v>
+      </c>
+      <c r="K67">
+        <v>0.0394156183144697</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2946603932813876</v>
+        <v>0.2957687925617025</v>
       </c>
       <c r="C68">
-        <v>0.02460013240726114</v>
+        <v>-0.06669453890326872</v>
       </c>
       <c r="D68">
-        <v>0.001009715866530121</v>
+        <v>-0.02372134534277932</v>
       </c>
       <c r="E68">
-        <v>-0.03231820272283539</v>
+        <v>-0.006917085547434252</v>
       </c>
       <c r="F68">
-        <v>0.008115472962008485</v>
+        <v>-0.03803741086939994</v>
       </c>
       <c r="G68">
-        <v>-0.007355223275269407</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01734365063955428</v>
+      </c>
+      <c r="H68">
+        <v>-0.01688939419734069</v>
+      </c>
+      <c r="I68">
+        <v>0.05987772819582287</v>
+      </c>
+      <c r="J68">
+        <v>-0.04913324023371106</v>
+      </c>
+      <c r="K68">
+        <v>-0.005952710414739682</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.006572389086512488</v>
+        <v>0.00730148608500131</v>
       </c>
       <c r="C69">
-        <v>-0.04194071877719575</v>
+        <v>0.04671744918147163</v>
       </c>
       <c r="D69">
-        <v>0.06377295845094395</v>
+        <v>0.02539150852780852</v>
       </c>
       <c r="E69">
-        <v>0.01355404890886004</v>
+        <v>-0.005054058021463215</v>
       </c>
       <c r="F69">
-        <v>0.003483455684933804</v>
+        <v>0.01280782754986688</v>
       </c>
       <c r="G69">
-        <v>-0.01704243803697791</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02879417578082763</v>
+      </c>
+      <c r="H69">
+        <v>-0.03230685392668776</v>
+      </c>
+      <c r="I69">
+        <v>0.002688989670014658</v>
+      </c>
+      <c r="J69">
+        <v>-0.01750891697028045</v>
+      </c>
+      <c r="K69">
+        <v>0.002156278956457848</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2858502875640784</v>
+        <v>0.2775396742665555</v>
       </c>
       <c r="C71">
-        <v>0.03920419858941268</v>
+        <v>-0.0719677431897843</v>
       </c>
       <c r="D71">
-        <v>-0.009022591727885792</v>
+        <v>-0.02313128054212453</v>
       </c>
       <c r="E71">
-        <v>-0.01908403922164886</v>
+        <v>0.01387086996313269</v>
       </c>
       <c r="F71">
-        <v>-0.01161550318703277</v>
+        <v>-0.06054291702236139</v>
       </c>
       <c r="G71">
-        <v>-0.01479004801538705</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01866278315560355</v>
+      </c>
+      <c r="H71">
+        <v>-0.05007485163068584</v>
+      </c>
+      <c r="I71">
+        <v>0.01646838967959004</v>
+      </c>
+      <c r="J71">
+        <v>-0.1218240615491145</v>
+      </c>
+      <c r="K71">
+        <v>-0.03679144854236922</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.01717164940947567</v>
+        <v>0.0546509176234387</v>
       </c>
       <c r="C72">
-        <v>-0.1514561762267153</v>
+        <v>0.1427969446936247</v>
       </c>
       <c r="D72">
-        <v>0.06934313477542868</v>
+        <v>0.05135115183795758</v>
       </c>
       <c r="E72">
-        <v>0.01102815723364668</v>
+        <v>-0.01906419404169379</v>
       </c>
       <c r="F72">
-        <v>-0.04946352981834642</v>
+        <v>0.0426922030419063</v>
       </c>
       <c r="G72">
-        <v>-0.1013130367477319</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.01075020665718877</v>
+      </c>
+      <c r="H72">
+        <v>-0.02145920858420285</v>
+      </c>
+      <c r="I72">
+        <v>0.03990769537121047</v>
+      </c>
+      <c r="J72">
+        <v>0.1152652758037825</v>
+      </c>
+      <c r="K72">
+        <v>-0.05634618762078823</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.07062123110539507</v>
+        <v>0.1490197704085769</v>
       </c>
       <c r="C73">
-        <v>-0.1032996775444813</v>
+        <v>0.1958101122482565</v>
       </c>
       <c r="D73">
-        <v>0.1169471237273403</v>
+        <v>0.08798123150449601</v>
       </c>
       <c r="E73">
-        <v>0.1695446171679935</v>
+        <v>-0.0178695282269244</v>
       </c>
       <c r="F73">
-        <v>0.1724084798453451</v>
+        <v>0.2412426288965549</v>
       </c>
       <c r="G73">
-        <v>-0.3192422773876087</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.3574907709604441</v>
+      </c>
+      <c r="H73">
+        <v>0.3177685046105253</v>
+      </c>
+      <c r="I73">
+        <v>-0.1165349537404163</v>
+      </c>
+      <c r="J73">
+        <v>-0.07154521815717513</v>
+      </c>
+      <c r="K73">
+        <v>-0.08624754599783045</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.00817001944710573</v>
+        <v>0.03789841046543659</v>
       </c>
       <c r="C74">
-        <v>-0.08229521765626541</v>
+        <v>0.1000146012769372</v>
       </c>
       <c r="D74">
-        <v>0.07980643836491412</v>
+        <v>0.04839096018452112</v>
       </c>
       <c r="E74">
-        <v>0.0744770749042169</v>
+        <v>0.01027798715022556</v>
       </c>
       <c r="F74">
-        <v>0.04678693171685826</v>
+        <v>0.03657680955612343</v>
       </c>
       <c r="G74">
-        <v>0.03537609389139378</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.04470104241193768</v>
+      </c>
+      <c r="H74">
+        <v>0.007446772479837558</v>
+      </c>
+      <c r="I74">
+        <v>0.03504356188620573</v>
+      </c>
+      <c r="J74">
+        <v>-0.001485925348628785</v>
+      </c>
+      <c r="K74">
+        <v>-0.04036653091942333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.04560538161393687</v>
+        <v>0.06310619855204912</v>
       </c>
       <c r="C75">
-        <v>-0.1363299362670867</v>
+        <v>0.164884134327298</v>
       </c>
       <c r="D75">
-        <v>0.09772569212689451</v>
+        <v>0.08911399873647347</v>
       </c>
       <c r="E75">
-        <v>0.1677852275737361</v>
+        <v>0.03737166814102906</v>
       </c>
       <c r="F75">
-        <v>0.03125110319209065</v>
+        <v>0.116548520193655</v>
       </c>
       <c r="G75">
-        <v>0.1888130084670989</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.2269309273881794</v>
+      </c>
+      <c r="H75">
+        <v>0.01414260359730964</v>
+      </c>
+      <c r="I75">
+        <v>0.009500834849648107</v>
+      </c>
+      <c r="J75">
+        <v>-0.12223284944723</v>
+      </c>
+      <c r="K75">
+        <v>0.09536537248819768</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.01711820667964452</v>
+        <v>0.04068531809247329</v>
       </c>
       <c r="C76">
-        <v>-0.1001624878310214</v>
+        <v>0.1220869305658905</v>
       </c>
       <c r="D76">
-        <v>0.07725072470359191</v>
+        <v>0.07583634052385563</v>
       </c>
       <c r="E76">
-        <v>0.08521132776807849</v>
+        <v>-0.0111292660986267</v>
       </c>
       <c r="F76">
-        <v>0.0631798456267967</v>
+        <v>0.08572562919891746</v>
       </c>
       <c r="G76">
-        <v>0.04651966486632701</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.07910541633608918</v>
+      </c>
+      <c r="H76">
+        <v>0.01758461463678217</v>
+      </c>
+      <c r="I76">
+        <v>0.0476306666650373</v>
+      </c>
+      <c r="J76">
+        <v>0.02014978093176771</v>
+      </c>
+      <c r="K76">
+        <v>0.02194206487572556</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08622406015698385</v>
+        <v>0.05006278094093013</v>
       </c>
       <c r="C77">
-        <v>-0.3748385731552429</v>
+        <v>0.4080590931057099</v>
       </c>
       <c r="D77">
-        <v>-0.8256840289458091</v>
+        <v>-0.8959866030842625</v>
       </c>
       <c r="E77">
-        <v>0.3290382322679611</v>
+        <v>0.02427839292427379</v>
       </c>
       <c r="F77">
-        <v>0.07248353856763846</v>
+        <v>0.09162279003784618</v>
       </c>
       <c r="G77">
-        <v>-0.05000121391417059</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03233916656288692</v>
+      </c>
+      <c r="H77">
+        <v>-0.0400474667968433</v>
+      </c>
+      <c r="I77">
+        <v>0.05202141703944086</v>
+      </c>
+      <c r="J77">
+        <v>-0.01239165917316439</v>
+      </c>
+      <c r="K77">
+        <v>0.004746799604966903</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.02346320856462258</v>
+        <v>0.03418847413561924</v>
       </c>
       <c r="C78">
-        <v>-0.1299151028622594</v>
+        <v>0.1132289440177269</v>
       </c>
       <c r="D78">
-        <v>0.1375290550400161</v>
+        <v>0.09536156471520142</v>
       </c>
       <c r="E78">
-        <v>-0.05842194397810366</v>
+        <v>-0.03684975839428377</v>
       </c>
       <c r="F78">
-        <v>0.09690609851460967</v>
+        <v>-0.001324539170413123</v>
       </c>
       <c r="G78">
-        <v>0.05832087133638826</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.1102514555658043</v>
+      </c>
+      <c r="H78">
+        <v>-0.08767623270631239</v>
+      </c>
+      <c r="I78">
+        <v>-0.03108003070238195</v>
+      </c>
+      <c r="J78">
+        <v>0.06638569822644654</v>
+      </c>
+      <c r="K78">
+        <v>-0.4207937100054133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02459402664248139</v>
+        <v>0.05414760671888665</v>
       </c>
       <c r="C79">
-        <v>-0.1631679965644145</v>
+        <v>0.1444310249412339</v>
       </c>
       <c r="D79">
-        <v>0.1300305364838879</v>
+        <v>0.07209759907512962</v>
       </c>
       <c r="E79">
-        <v>0.1158343634073966</v>
+        <v>-0.01643833237187713</v>
       </c>
       <c r="F79">
-        <v>0.09106445098937528</v>
+        <v>0.06854324557240295</v>
       </c>
       <c r="G79">
-        <v>0.232498070320986</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2290640008166684</v>
+      </c>
+      <c r="H79">
+        <v>-0.02210607989517194</v>
+      </c>
+      <c r="I79">
+        <v>0.03550750139899478</v>
+      </c>
+      <c r="J79">
+        <v>-0.0837963081702421</v>
+      </c>
+      <c r="K79">
+        <v>-0.05187872823226104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.009594957706523122</v>
+        <v>0.02028002080557283</v>
       </c>
       <c r="C80">
-        <v>-0.05238914852280914</v>
+        <v>0.04422588916962139</v>
       </c>
       <c r="D80">
-        <v>0.05424867427711465</v>
+        <v>0.03945859040847747</v>
       </c>
       <c r="E80">
-        <v>-0.03736642813745082</v>
+        <v>-0.0473485470998915</v>
       </c>
       <c r="F80">
-        <v>0.02056668172653649</v>
+        <v>-0.02927711057188176</v>
       </c>
       <c r="G80">
-        <v>0.001363406639972451</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.06971885233465598</v>
+      </c>
+      <c r="H80">
+        <v>0.02646313126958971</v>
+      </c>
+      <c r="I80">
+        <v>-0.05874378389823419</v>
+      </c>
+      <c r="J80">
+        <v>-0.02004429291999946</v>
+      </c>
+      <c r="K80">
+        <v>0.06101384655338614</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.006666601840585862</v>
+        <v>0.0174747880010061</v>
       </c>
       <c r="C81">
-        <v>-0.06960836255671518</v>
+        <v>0.09765199170638258</v>
       </c>
       <c r="D81">
-        <v>0.08245183751451472</v>
+        <v>0.05910761317725859</v>
       </c>
       <c r="E81">
-        <v>0.08352240327174539</v>
+        <v>-0.01593581697426577</v>
       </c>
       <c r="F81">
-        <v>0.05760783736014069</v>
+        <v>0.04762603026330789</v>
       </c>
       <c r="G81">
-        <v>0.06989862219740153</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1028189822801823</v>
+      </c>
+      <c r="H81">
+        <v>-0.04669004313958248</v>
+      </c>
+      <c r="I81">
+        <v>0.021428775690358</v>
+      </c>
+      <c r="J81">
+        <v>-0.05248380271339546</v>
+      </c>
+      <c r="K81">
+        <v>0.01598007760812976</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.0199855552364815</v>
+        <v>0.04349268595169858</v>
       </c>
       <c r="C82">
-        <v>-0.07382928000279446</v>
+        <v>0.1007758475869673</v>
       </c>
       <c r="D82">
-        <v>0.08135907937337769</v>
+        <v>0.06655288686652007</v>
       </c>
       <c r="E82">
-        <v>0.1011152480097084</v>
+        <v>-0.01672331718854955</v>
       </c>
       <c r="F82">
-        <v>0.05251775619328687</v>
+        <v>0.07172052431894131</v>
       </c>
       <c r="G82">
-        <v>0.03907698558645761</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.08648754959885668</v>
+      </c>
+      <c r="H82">
+        <v>-0.008296517170210552</v>
+      </c>
+      <c r="I82">
+        <v>0.02178125917908721</v>
+      </c>
+      <c r="J82">
+        <v>-0.007245440319983967</v>
+      </c>
+      <c r="K82">
+        <v>-0.003083695262253533</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.0003470685704448826</v>
+        <v>-0.00149835744536085</v>
       </c>
       <c r="C83">
-        <v>-0.03244476451501598</v>
+        <v>-0.02444612359857685</v>
       </c>
       <c r="D83">
-        <v>-0.1637549843956236</v>
+        <v>-0.05814827763995409</v>
       </c>
       <c r="E83">
-        <v>-0.5244030715138878</v>
+        <v>-0.9540698129192742</v>
       </c>
       <c r="F83">
-        <v>0.7412364808718294</v>
+        <v>-0.1222821644901801</v>
       </c>
       <c r="G83">
-        <v>0.1734148360582935</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04730327390356041</v>
+      </c>
+      <c r="H83">
+        <v>0.06561233823968238</v>
+      </c>
+      <c r="I83">
+        <v>-0.03254821794980224</v>
+      </c>
+      <c r="J83">
+        <v>0.08327973877571465</v>
+      </c>
+      <c r="K83">
+        <v>-0.03209647199196508</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.006740682960028838</v>
+        <v>-0.002159970792160078</v>
       </c>
       <c r="C84">
-        <v>-0.07784842115043568</v>
+        <v>0.04742983495068939</v>
       </c>
       <c r="D84">
-        <v>0.04076952182714532</v>
+        <v>0.06287625433071355</v>
       </c>
       <c r="E84">
-        <v>-0.07864586682344046</v>
+        <v>0.02873867193320279</v>
       </c>
       <c r="F84">
-        <v>-0.1441147633486253</v>
+        <v>-0.09608360356067513</v>
       </c>
       <c r="G84">
-        <v>0.008148852804100853</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.02935677828495693</v>
+      </c>
+      <c r="H84">
+        <v>-0.08134949073413653</v>
+      </c>
+      <c r="I84">
+        <v>0.08890150365553209</v>
+      </c>
+      <c r="J84">
+        <v>0.1263236050357814</v>
+      </c>
+      <c r="K84">
+        <v>0.05550445121117187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.001288454334580981</v>
+        <v>0.02863520866149354</v>
       </c>
       <c r="C85">
-        <v>-0.1140701751792975</v>
+        <v>0.1158136133194153</v>
       </c>
       <c r="D85">
-        <v>0.09090554589010078</v>
+        <v>0.08466312247281274</v>
       </c>
       <c r="E85">
-        <v>0.1216524618416329</v>
+        <v>-0.01991682616384157</v>
       </c>
       <c r="F85">
-        <v>0.08753235965687618</v>
+        <v>0.1320864360849098</v>
       </c>
       <c r="G85">
-        <v>0.1871679262993742</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.2213551750568199</v>
+      </c>
+      <c r="H85">
+        <v>0.03313825195390092</v>
+      </c>
+      <c r="I85">
+        <v>0.06902075976745939</v>
+      </c>
+      <c r="J85">
+        <v>-0.07518513659954697</v>
+      </c>
+      <c r="K85">
+        <v>0.03557211202809648</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.02119010496389479</v>
+        <v>0.0163097349719724</v>
       </c>
       <c r="C86">
-        <v>-0.07521076251146937</v>
+        <v>0.08061042395808421</v>
       </c>
       <c r="D86">
-        <v>-0.01361967673323902</v>
+        <v>0.03249094020113844</v>
       </c>
       <c r="E86">
-        <v>-0.007733009876009554</v>
+        <v>0.005164818189710067</v>
       </c>
       <c r="F86">
-        <v>-0.03423077097572459</v>
+        <v>-0.07824860172001935</v>
       </c>
       <c r="G86">
-        <v>-0.08895236634665957</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.05324024944214116</v>
+      </c>
+      <c r="H86">
+        <v>-0.02945950694501188</v>
+      </c>
+      <c r="I86">
+        <v>-0.1374186388578716</v>
+      </c>
+      <c r="J86">
+        <v>-0.118298492284828</v>
+      </c>
+      <c r="K86">
+        <v>-0.1662701634308177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.02160110521434245</v>
+        <v>0.02518408633928805</v>
       </c>
       <c r="C87">
-        <v>-0.148256313808669</v>
+        <v>0.1185574566003016</v>
       </c>
       <c r="D87">
-        <v>0.03986041273959845</v>
+        <v>0.02418032283925391</v>
       </c>
       <c r="E87">
-        <v>-0.0962506106885693</v>
+        <v>0.001399952413238016</v>
       </c>
       <c r="F87">
-        <v>-0.04324728644179003</v>
+        <v>-0.06019268314565777</v>
       </c>
       <c r="G87">
-        <v>-0.01033765850544251</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.00732516336642659</v>
+      </c>
+      <c r="H87">
+        <v>-0.02235062274072579</v>
+      </c>
+      <c r="I87">
+        <v>0.09237163492996041</v>
+      </c>
+      <c r="J87">
+        <v>0.07027344653607577</v>
+      </c>
+      <c r="K87">
+        <v>-0.03986177900639131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.00911535615188396</v>
+        <v>0.03878856643172789</v>
       </c>
       <c r="C88">
-        <v>-0.03506730932707075</v>
+        <v>0.06055328644765601</v>
       </c>
       <c r="D88">
-        <v>0.04618790193524174</v>
+        <v>0.04216518139299692</v>
       </c>
       <c r="E88">
-        <v>0.0497918645596264</v>
+        <v>0.005964798034493662</v>
       </c>
       <c r="F88">
-        <v>0.007006438724163872</v>
+        <v>0.02083902046191886</v>
       </c>
       <c r="G88">
-        <v>-0.0005518566526480405</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02235475051260835</v>
+      </c>
+      <c r="H88">
+        <v>0.008459524896154655</v>
+      </c>
+      <c r="I88">
+        <v>-0.00805105249992486</v>
+      </c>
+      <c r="J88">
+        <v>-0.002167303653429088</v>
+      </c>
+      <c r="K88">
+        <v>0.0643586320966248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.4032512280835575</v>
+        <v>0.3926459238362766</v>
       </c>
       <c r="C89">
-        <v>0.06962805047913088</v>
+        <v>-0.113567405956221</v>
       </c>
       <c r="D89">
-        <v>0.07074329467472058</v>
+        <v>-0.03699612599817414</v>
       </c>
       <c r="E89">
-        <v>-0.07014641660143191</v>
+        <v>0.0428105550900949</v>
       </c>
       <c r="F89">
-        <v>-0.09078081740389925</v>
+        <v>-0.05591042979934766</v>
       </c>
       <c r="G89">
-        <v>0.04939663942814762</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.03315977338198066</v>
+      </c>
+      <c r="H89">
+        <v>-0.02182681936625041</v>
+      </c>
+      <c r="I89">
+        <v>0.05912660528412276</v>
+      </c>
+      <c r="J89">
+        <v>0.7284049257799743</v>
+      </c>
+      <c r="K89">
+        <v>0.03043493988642146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.308222471741736</v>
+        <v>0.3163022224482898</v>
       </c>
       <c r="C90">
-        <v>0.02139052515963544</v>
+        <v>-0.07276380184945459</v>
       </c>
       <c r="D90">
-        <v>-0.007608230628164269</v>
+        <v>-0.01884294239834551</v>
       </c>
       <c r="E90">
-        <v>-0.07490062334006532</v>
+        <v>-0.007344687668294388</v>
       </c>
       <c r="F90">
-        <v>0.04558415399999961</v>
+        <v>-0.03931049906222286</v>
       </c>
       <c r="G90">
-        <v>-0.03056962415531033</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.001679131936025619</v>
+      </c>
+      <c r="H90">
+        <v>-0.01969273274374563</v>
+      </c>
+      <c r="I90">
+        <v>0.00380441417264902</v>
+      </c>
+      <c r="J90">
+        <v>-0.085451777378729</v>
+      </c>
+      <c r="K90">
+        <v>-0.008045779756256605</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02466679433754836</v>
+        <v>0.0536465305325815</v>
       </c>
       <c r="C91">
-        <v>-0.07646620277304152</v>
+        <v>0.08117137194383757</v>
       </c>
       <c r="D91">
-        <v>0.07395820107818087</v>
+        <v>0.05458287681226592</v>
       </c>
       <c r="E91">
-        <v>0.06181956705732432</v>
+        <v>-0.04441117298667817</v>
       </c>
       <c r="F91">
-        <v>0.0595367582953855</v>
+        <v>0.05729101528696855</v>
       </c>
       <c r="G91">
-        <v>0.07616295638156119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.08570287470257469</v>
+      </c>
+      <c r="H91">
+        <v>0.02963594286801754</v>
+      </c>
+      <c r="I91">
+        <v>0.000453132909877677</v>
+      </c>
+      <c r="J91">
+        <v>-0.002127889851975692</v>
+      </c>
+      <c r="K91">
+        <v>0.06391709419328369</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3810900300763373</v>
+        <v>0.3534992272152118</v>
       </c>
       <c r="C92">
-        <v>0.05679167124090014</v>
+        <v>-0.1164578284734919</v>
       </c>
       <c r="D92">
-        <v>-0.01480910589815702</v>
+        <v>-0.05362775963145535</v>
       </c>
       <c r="E92">
-        <v>0.01472094643628847</v>
+        <v>0.04258942350002811</v>
       </c>
       <c r="F92">
-        <v>-0.1093330605134482</v>
+        <v>-0.04820168044256413</v>
       </c>
       <c r="G92">
-        <v>0.007280260876865452</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.01359612239657595</v>
+      </c>
+      <c r="H92">
+        <v>-0.0578036288319666</v>
+      </c>
+      <c r="I92">
+        <v>0.006562419964873768</v>
+      </c>
+      <c r="J92">
+        <v>-0.1507133720302216</v>
+      </c>
+      <c r="K92">
+        <v>0.004330735611639908</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3053568835404144</v>
+        <v>0.3111132986237395</v>
       </c>
       <c r="C93">
-        <v>0.07265456999269818</v>
+        <v>-0.1118673159136061</v>
       </c>
       <c r="D93">
-        <v>0.005643724908337431</v>
+        <v>-0.01006982466866234</v>
       </c>
       <c r="E93">
-        <v>-0.06852906418611859</v>
+        <v>0.005611990156604169</v>
       </c>
       <c r="F93">
-        <v>-0.03633259409264841</v>
+        <v>-0.03911181360923636</v>
       </c>
       <c r="G93">
-        <v>0.01134754900586955</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03601471108250642</v>
+      </c>
+      <c r="H93">
+        <v>-0.03565306847366885</v>
+      </c>
+      <c r="I93">
+        <v>-0.0244561420883548</v>
+      </c>
+      <c r="J93">
+        <v>-0.1007589739064843</v>
+      </c>
+      <c r="K93">
+        <v>-0.01960513629854689</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.03658165870435034</v>
+        <v>0.07750090717340263</v>
       </c>
       <c r="C94">
-        <v>-0.1919480979255188</v>
+        <v>0.1623632052347618</v>
       </c>
       <c r="D94">
-        <v>0.1504607615282982</v>
+        <v>0.1146307000266445</v>
       </c>
       <c r="E94">
-        <v>0.2099218747777921</v>
+        <v>-0.03035049198232013</v>
       </c>
       <c r="F94">
-        <v>0.04854182919046009</v>
+        <v>0.1543057022920952</v>
       </c>
       <c r="G94">
-        <v>0.5924226615895797</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.5548247687043851</v>
+      </c>
+      <c r="H94">
+        <v>0.1746768862405549</v>
+      </c>
+      <c r="I94">
+        <v>-0.03436043885853582</v>
+      </c>
+      <c r="J94">
+        <v>0.07923477927317091</v>
+      </c>
+      <c r="K94">
+        <v>0.2756958367493902</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.0230458542358171</v>
+        <v>0.0389442128041184</v>
       </c>
       <c r="C95">
-        <v>-0.09540894923259929</v>
+        <v>0.1271377159936577</v>
       </c>
       <c r="D95">
-        <v>0.04569582687624988</v>
+        <v>0.0653972085873831</v>
       </c>
       <c r="E95">
-        <v>0.03816953097382218</v>
+        <v>0.019251110089792</v>
       </c>
       <c r="F95">
-        <v>0.08406928216236326</v>
+        <v>0.07832450815274213</v>
       </c>
       <c r="G95">
-        <v>-0.07854825441825594</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.04573798423280145</v>
+      </c>
+      <c r="H95">
+        <v>-0.05601966591032825</v>
+      </c>
+      <c r="I95">
+        <v>0.09067391087581679</v>
+      </c>
+      <c r="J95">
+        <v>0.1683634040596046</v>
+      </c>
+      <c r="K95">
+        <v>0.2634908792773962</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-7.973758612495426e-05</v>
+        <v>0.01627149057842634</v>
       </c>
       <c r="C97">
-        <v>0.0009243618750528727</v>
+        <v>0.01599707656687061</v>
       </c>
       <c r="D97">
-        <v>0.0005084543961074734</v>
+        <v>-0.006485627098412937</v>
       </c>
       <c r="E97">
-        <v>0.003186193758942509</v>
+        <v>0.0286000327317093</v>
       </c>
       <c r="F97">
-        <v>-0.003470996831509655</v>
+        <v>0.004502815181474541</v>
       </c>
       <c r="G97">
-        <v>-0.001795570987616033</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.01854317017020385</v>
+      </c>
+      <c r="H97">
+        <v>-0.06350292896204636</v>
+      </c>
+      <c r="I97">
+        <v>-0.1427261575182936</v>
+      </c>
+      <c r="J97">
+        <v>0.04320078185046121</v>
+      </c>
+      <c r="K97">
+        <v>0.03784560660187684</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.07958858451983677</v>
+        <v>0.1309724802493501</v>
       </c>
       <c r="C98">
-        <v>-0.1380634575165734</v>
+        <v>0.1605165965496322</v>
       </c>
       <c r="D98">
-        <v>0.1342185501421653</v>
+        <v>0.09407601086472271</v>
       </c>
       <c r="E98">
-        <v>0.103062531403767</v>
+        <v>-0.03878359122087344</v>
       </c>
       <c r="F98">
-        <v>0.1201554524648305</v>
+        <v>0.2236397393906127</v>
       </c>
       <c r="G98">
-        <v>-0.1958828549320485</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.2845232114201343</v>
+      </c>
+      <c r="H98">
+        <v>0.3464981424210408</v>
+      </c>
+      <c r="I98">
+        <v>-0.1239722137821</v>
+      </c>
+      <c r="J98">
+        <v>-0.09692996246680997</v>
+      </c>
+      <c r="K98">
+        <v>-0.0633965264652769</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01897713958138412</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.03909066668319315</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.01540022316747791</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.03679558536533171</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.07764976309872718</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.07444552545749625</v>
+      </c>
+      <c r="H99">
+        <v>-0.2704704625554123</v>
+      </c>
+      <c r="I99">
+        <v>-0.8862383092858959</v>
+      </c>
+      <c r="J99">
+        <v>0.1300005847873691</v>
+      </c>
+      <c r="K99">
+        <v>0.02571501578809638</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.008705217449669886</v>
+        <v>0.01503524288398531</v>
       </c>
       <c r="C101">
-        <v>-0.07561564629198705</v>
+        <v>0.08250088850832124</v>
       </c>
       <c r="D101">
-        <v>0.04833735665566279</v>
+        <v>0.05055416496168905</v>
       </c>
       <c r="E101">
-        <v>-0.02111556902195441</v>
+        <v>-0.04834239273981396</v>
       </c>
       <c r="F101">
-        <v>0.0304544305390274</v>
+        <v>-0.005250289636070824</v>
       </c>
       <c r="G101">
-        <v>-0.1205555831710057</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1483464054747244</v>
+      </c>
+      <c r="H101">
+        <v>-0.2649838973508586</v>
+      </c>
+      <c r="I101">
+        <v>0.06502735461079458</v>
+      </c>
+      <c r="J101">
+        <v>-0.01545925056777496</v>
+      </c>
+      <c r="K101">
+        <v>0.1903763890055611</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.005363355363596804</v>
+        <v>0.002426210034385653</v>
       </c>
       <c r="C102">
-        <v>-0.01879217547471357</v>
+        <v>0.00747171918237445</v>
       </c>
       <c r="D102">
-        <v>0.002275401679563929</v>
+        <v>-0.001559179829942441</v>
       </c>
       <c r="E102">
-        <v>0.02669825963046456</v>
+        <v>-0.002264628567571026</v>
       </c>
       <c r="F102">
-        <v>0.02028536146923742</v>
+        <v>0.007485066437757949</v>
       </c>
       <c r="G102">
-        <v>0.00844451250155834</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.004549637383649606</v>
+      </c>
+      <c r="H102">
+        <v>-0.001144600942242205</v>
+      </c>
+      <c r="I102">
+        <v>0.003085974985419033</v>
+      </c>
+      <c r="J102">
+        <v>0.01139171814798109</v>
+      </c>
+      <c r="K102">
+        <v>-0.002359283106717067</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
